--- a/TwinEU-Non-FURs.xlsx
+++ b/TwinEU-Non-FURs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/TwinEU/Freigegebene Dokumente/WP3 Open Architecture for DT/T3.2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{DA917092-7C4C-4D30-9DB2-08A362B83035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8D153A-FC6F-4FD6-A6F6-4CDE0EF69785}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{DA917092-7C4C-4D30-9DB2-08A362B83035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEE00CF-BBDA-4CB3-A1CE-8329217B1C5D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D732E76F-D98E-4FF7-B043-6F67180B8AFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="277">
   <si>
     <r>
       <t xml:space="preserve">The </t>
@@ -169,12 +169,6 @@
 for Critical Grid Parameters</t>
   </si>
   <si>
-    <t>??Functional Suitability/Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional  Correctness/Appropriateness </t>
-  </si>
-  <si>
     <t>The data exchanged between the DTs must maintain high accuracy and precision, particularly for critical grid parameters such as frequency control, voltage levels, and consumption forecasts/when assessing technical constraints and geographical factors related to, for example, VRES and DER connection points.</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
 Standards</t>
   </si>
   <si>
-    <t>Functional Correctness/Approprietness</t>
-  </si>
-  <si>
     <t>The TwinEU system should adhere to local grid codes
  and distribution network standards</t>
   </si>
@@ -218,12 +209,6 @@
     <t>TwinEU_NFR_07</t>
   </si>
   <si>
-    <t>Forecast Accuracy and Validation</t>
-  </si>
-  <si>
-    <t>The generated synthetic series/forecasts/simulations outputs must have an accuracy of at least 95% when compared to real-world data.(maybe can be united with the previous requirement)</t>
-  </si>
-  <si>
     <t>TwinEU_NFR_08</t>
   </si>
   <si>
@@ -324,23 +309,13 @@
  for Grid Analytics</t>
   </si>
   <si>
-    <t>?Time Behaviour/-Capacity</t>
-  </si>
-  <si>
     <t>The TwinEU system should support high throughput to handle the large volumes of information generated by grid models and predictive analytics.</t>
   </si>
   <si>
     <t>TwinEU_NFR_17</t>
   </si>
   <si>
-    <t>Real-Time, High-Accuracy 
-Simulations</t>
-  </si>
-  <si>
     <t>Time Behaviour/Capacity</t>
-  </si>
-  <si>
-    <t>The TwinEU system must process and simulate scenarios in real-time, ensuring operations without delays that could affect the accuracy of the results. The simulations must have high accuracy, reflecting the actual behavior of the grid within a small margin of error (e.g., less than 5%)</t>
   </si>
   <si>
     <t>TwinEU_NFR_18</t>
@@ -350,9 +325,6 @@
 power prediction</t>
   </si>
   <si>
-    <t>?Performance Efficiency/Functional Suitability</t>
-  </si>
-  <si>
     <t>The ANN models in the TwinEU system must achieve a high level of accuracy in predicting WPP production, with forecast errors minimized through continuous learning and optimization.</t>
   </si>
   <si>
@@ -469,9 +441,6 @@
     <t>TwinEU_NFR_29</t>
   </si>
   <si>
-    <t>External Data Integration Capability</t>
-  </si>
-  <si>
     <t>The TwinEU system must be able to communicate
  with external databases and models, including those provided by DSOs and/or RES operators.</t>
   </si>
@@ -573,9 +542,6 @@
   </si>
   <si>
     <t>TwinEU_NFR_37</t>
-  </si>
-  <si>
-    <t>High Reliability Operational Forecasting</t>
   </si>
   <si>
     <t>Availability/Fault tolerance/Robustness</t>
@@ -691,12 +657,6 @@
 Resource Qualification</t>
   </si>
   <si>
-    <t>?Security</t>
-  </si>
-  <si>
-    <t>?Maintainability</t>
-  </si>
-  <si>
     <t>The TwinEU system should comply to industry standards for flexibility resources and ensure regulatory compliance throughout the qualification process.</t>
   </si>
   <si>
@@ -716,9 +676,6 @@
   </si>
   <si>
     <t>Regulatory Compliance for Renewable Energy  and Grid Operations</t>
-  </si>
-  <si>
-    <t>?Security/Safety?</t>
   </si>
   <si>
     <t>The TwinEU system must adhere to national and international regulations regarding renewable energy forecasting and grid operation standards.</t>
@@ -749,13 +706,6 @@
     <t>TwinEU_NFR_52</t>
   </si>
   <si>
-    <t>?Scalability for Future Expansion and 
-Complex Operations</t>
-  </si>
-  <si>
-    <t>?Maintainability/Modularity or Flexibility/Scalability</t>
-  </si>
-  <si>
     <t>The TwinEU system should be scalable to handle increasingly complex operations, including the integration of additional grid sections or equipment. The architecture must support the addition of new grid areas and additional operational scenarios as the system evolves. The TwinEU system must scale to handle multiple geographic locations and different types of renewable resources as required by the expanding power grid.</t>
   </si>
   <si>
@@ -775,9 +725,6 @@
   </si>
   <si>
     <t>TwinEU_NFR_54</t>
-  </si>
-  <si>
-    <t>Dynamic Load Scalability</t>
   </si>
   <si>
     <t>The TwinEU system must be scalable to handle increasing data loads.</t>
@@ -850,17 +797,6 @@
     <t>TwinEU_NFR_60</t>
   </si>
   <si>
-    <t xml:space="preserve">Automated Functionality Testing and Stability Assurance
-</t>
-  </si>
-  <si>
-    <t>Performance Efficiency/Flexibility</t>
-  </si>
-  <si>
-    <t>Scalability(Flexibility)
-Capacity(Performance Efficiency)</t>
-  </si>
-  <si>
     <t>TwinEU_NFR_61</t>
   </si>
   <si>
@@ -877,9 +813,6 @@
   </si>
   <si>
     <t>TwinEU_NFR_62</t>
-  </si>
-  <si>
-    <t>Data Integration, Scalability and Adaptability</t>
   </si>
   <si>
     <t>Scalability</t>
@@ -895,29 +828,6 @@
     <t>Platform and Environment Independence</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Portability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Flexibility</t>
-    </r>
-  </si>
-  <si>
     <t>The TwinEU system must be platform and environment agnostic.</t>
   </si>
   <si>
@@ -940,29 +850,6 @@
     <t>Grid Configuration Adaptability</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Portability </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Flexibility</t>
-    </r>
-  </si>
-  <si>
     <t>The TwinEU system must be adaptable to 
 different grid configurations and capable of integrating with various monitoring and/or control devices/new types of energy sources. It should support the inclusion of new renewable resources as technology advances (e.g., tidal energy).</t>
   </si>
@@ -1040,13 +927,68 @@
   </si>
   <si>
     <t>The TwinEU system must manage real-time data efficiently. The TwinEU system must process real-time data with minimal latency, ensuring timely responses, enabling real-time or near-real-time communication (e.g., under one minute).</t>
+  </si>
+  <si>
+    <t>Functional  Correctness</t>
+  </si>
+  <si>
+    <t>Functional Correctness/Functional appropriateness</t>
+  </si>
+  <si>
+    <t>The generated synthetic series/forecasts/simulations outputs must have an accuracy of at least 95% when compared to real-world data.</t>
+  </si>
+  <si>
+    <t>High Accuracy of Synthetic Outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must process and simulate grid scenarios in real-time, without delays that could impact operational decision-making or the timeliness of results. </t>
+  </si>
+  <si>
+    <t>High-Accuracy Simulations</t>
+  </si>
+  <si>
+    <t>The system must ensure that scenario simulations accurately reflect the real grid behavior, with errors in frequency, voltage, and current staying within a small margin (e.g. less than 5%), as validated against a defined base case.</t>
+  </si>
+  <si>
+    <t>TwinEU_NFR_72</t>
+  </si>
+  <si>
+    <t>Real-Time Simulations</t>
+  </si>
+  <si>
+    <t>External Database and Model 
+Communication</t>
+  </si>
+  <si>
+    <t>Scalability for Future Expansion and 
+Complex Operations</t>
+  </si>
+  <si>
+    <t>System Capacity for Increasing Data Loads</t>
+  </si>
+  <si>
+    <t>The architecture must support regional expansions across European grids  (ensuring that it can handle more RES connections and a larger LFM without compromising performance).</t>
+  </si>
+  <si>
+    <t>Support for Scalable European Grid 
+Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Capacity</t>
+  </si>
+  <si>
+    <t>Adaptive Data Integration Capability</t>
+  </si>
+  <si>
+    <t>High Reliability with Minimal Failure Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,14 +1016,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1511,26 +1445,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD303A7-BC32-4F85-99AA-EE26A2C889BA}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.453125" customWidth="1"/>
-    <col min="6" max="6" width="41.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="41.1796875" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1541,12 +1475,12 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1523,7 @@
       <c r="F6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1542,7 @@
       <c r="F7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1616,1312 +1550,1328 @@
         <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="F12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="F16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="F23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="F30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="F31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="110.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>117</v>
+        <v>89</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="F43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="F47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="F55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="F56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="E57" s="6" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="E59" s="6" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>213</v>
+        <v>195</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="F60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>218</v>
+        <v>200</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="F62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>238</v>
+        <v>217</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="F68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="F71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="F72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="F74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="F76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+    <row r="77" spans="1:9" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2930,7 +2880,7 @@
       <c r="F78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2939,7 +2889,7 @@
       <c r="F79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2948,7 +2898,7 @@
       <c r="F80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2957,7 +2907,7 @@
       <c r="F81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2966,7 +2916,7 @@
       <c r="F82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2975,7 +2925,7 @@
       <c r="F83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2984,7 +2934,7 @@
       <c r="F84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2993,7 +2943,7 @@
       <c r="F85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3002,7 +2952,7 @@
       <c r="F86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3011,7 +2961,7 @@
       <c r="F87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3020,7 +2970,7 @@
       <c r="F88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3029,7 +2979,7 @@
       <c r="F89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3038,7 +2988,7 @@
       <c r="F90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3047,7 +2997,7 @@
       <c r="F91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3056,7 +3006,7 @@
       <c r="F92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3065,7 +3015,7 @@
       <c r="F93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3074,7 +3024,7 @@
       <c r="F94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3083,7 +3033,7 @@
       <c r="F95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3092,7 +3042,7 @@
       <c r="F96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3101,7 +3051,7 @@
       <c r="F97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3110,7 +3060,7 @@
       <c r="F98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3119,7 +3069,7 @@
       <c r="F99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3128,7 +3078,7 @@
       <c r="F100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3137,7 +3087,7 @@
       <c r="F101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3146,7 +3096,7 @@
       <c r="F102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3155,7 +3105,7 @@
       <c r="F103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3164,7 +3114,7 @@
       <c r="F104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3173,7 +3123,7 @@
       <c r="F105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3182,7 +3132,7 @@
       <c r="F106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3191,7 +3141,7 @@
       <c r="F107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3200,7 +3150,7 @@
       <c r="F108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3209,7 +3159,7 @@
       <c r="F109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3218,7 +3168,7 @@
       <c r="F110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3227,7 +3177,7 @@
       <c r="F111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3236,7 +3186,7 @@
       <c r="F112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3245,7 +3195,7 @@
       <c r="F113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3254,7 +3204,7 @@
       <c r="F114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3263,7 +3213,7 @@
       <c r="F115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3272,7 +3222,7 @@
       <c r="F116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3281,7 +3231,7 @@
       <c r="F117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3290,7 +3240,7 @@
       <c r="F118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3299,7 +3249,7 @@
       <c r="F119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3308,7 +3258,7 @@
       <c r="F120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3317,7 +3267,7 @@
       <c r="F121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3326,7 +3276,7 @@
       <c r="F122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3335,7 +3285,7 @@
       <c r="F123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3344,7 +3294,7 @@
       <c r="F124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3353,7 +3303,7 @@
       <c r="F125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3362,7 +3312,7 @@
       <c r="F126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3371,7 +3321,7 @@
       <c r="F127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3380,7 +3330,7 @@
       <c r="F128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3389,7 +3339,7 @@
       <c r="F129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3398,7 +3348,7 @@
       <c r="F130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3407,7 +3357,7 @@
       <c r="F131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3416,7 +3366,7 @@
       <c r="F132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3425,7 +3375,7 @@
       <c r="F133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3434,7 +3384,7 @@
       <c r="F134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3443,7 +3393,7 @@
       <c r="F135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3452,7 +3402,7 @@
       <c r="F136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3461,7 +3411,7 @@
       <c r="F137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3470,7 +3420,7 @@
       <c r="F138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3479,7 +3429,7 @@
       <c r="F139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3488,7 +3438,7 @@
       <c r="F140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3497,7 +3447,7 @@
       <c r="F141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3506,7 +3456,7 @@
       <c r="F142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3515,7 +3465,7 @@
       <c r="F143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3524,7 +3474,7 @@
       <c r="F144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3533,7 +3483,7 @@
       <c r="F145" s="5"/>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3542,7 +3492,7 @@
       <c r="F146" s="5"/>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3551,7 +3501,7 @@
       <c r="F147" s="5"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3560,7 +3510,7 @@
       <c r="F148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3569,7 +3519,7 @@
       <c r="F149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3578,7 +3528,7 @@
       <c r="F150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3587,7 +3537,7 @@
       <c r="F151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3596,7 +3546,7 @@
       <c r="F152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3605,7 +3555,7 @@
       <c r="F153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3614,7 +3564,7 @@
       <c r="F154" s="5"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3623,7 +3573,7 @@
       <c r="F155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3632,7 +3582,7 @@
       <c r="F156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3641,7 +3591,7 @@
       <c r="F157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3650,7 +3600,7 @@
       <c r="F158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3659,7 +3609,7 @@
       <c r="F159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3668,7 +3618,7 @@
       <c r="F160" s="5"/>
       <c r="I160" s="5"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3677,7 +3627,7 @@
       <c r="F161" s="5"/>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3686,7 +3636,7 @@
       <c r="F162" s="5"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3695,7 +3645,7 @@
       <c r="F163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3704,7 +3654,7 @@
       <c r="F164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3713,7 +3663,7 @@
       <c r="F165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3722,7 +3672,7 @@
       <c r="F166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3731,7 +3681,7 @@
       <c r="F167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3740,7 +3690,7 @@
       <c r="F168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3749,7 +3699,7 @@
       <c r="F169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3758,7 +3708,7 @@
       <c r="F170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3767,7 +3717,7 @@
       <c r="F171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3776,7 +3726,7 @@
       <c r="F172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3785,7 +3735,7 @@
       <c r="F173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3794,7 +3744,7 @@
       <c r="F174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3803,7 +3753,7 @@
       <c r="F175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3812,7 +3762,7 @@
       <c r="F176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3821,7 +3771,7 @@
       <c r="F177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3830,7 +3780,7 @@
       <c r="F178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3839,7 +3789,7 @@
       <c r="F179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3848,7 +3798,7 @@
       <c r="F180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3857,7 +3807,7 @@
       <c r="F181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3866,7 +3816,7 @@
       <c r="F182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3875,7 +3825,7 @@
       <c r="F183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3884,7 +3834,7 @@
       <c r="F184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3893,7 +3843,7 @@
       <c r="F185" s="5"/>
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3902,7 +3852,7 @@
       <c r="F186" s="5"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3911,7 +3861,7 @@
       <c r="F187" s="5"/>
       <c r="I187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3920,11 +3870,20 @@
       <c r="F188" s="5"/>
       <c r="I188" s="5"/>
     </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="I189" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3939,17 +3898,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -4184,6 +4132,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFD0563-E51A-46A4-BC50-64CB3B03F59E}">
   <ds:schemaRefs>
@@ -4193,23 +4152,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03364E4-616A-463B-B4B9-EBAFE8804982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625089FD-44EA-478C-AD4E-932468137AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4226,4 +4168,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03364E4-616A-463B-B4B9-EBAFE8804982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TwinEU-Non-FURs.xlsx
+++ b/TwinEU-Non-FURs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/TwinEU/Freigegebene Dokumente/WP3 Open Architecture for DT/T3.2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\projects\TwinEU\WP3\T3.2\!GitHub-Documents\T3.2_Functional_specifications_of_pan-European_DT_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{DA917092-7C4C-4D30-9DB2-08A362B83035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEE00CF-BBDA-4CB3-A1CE-8329217B1C5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0021F2B-A3A3-4027-9315-6572C36B56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D732E76F-D98E-4FF7-B043-6F67180B8AFC}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" xr2:uid="{D732E76F-D98E-4FF7-B043-6F67180B8AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-FURs" sheetId="1" r:id="rId1"/>
@@ -1447,24 +1447,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD303A7-BC32-4F85-99AA-EE26A2C889BA}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.453125" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1475,12 +1475,12 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="F6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="F7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="F8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="F9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="F10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="F11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="F12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="F13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="F14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="F15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="F16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="F17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="F18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="F19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="F20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="F21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="F22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="F23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="F24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="F25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="F26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="F27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="F28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="F29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="F30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="F31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="F32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="F33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>102</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="F34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>104</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="F35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="110.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>109</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="F36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>113</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="F37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>117</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="F38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>122</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="F40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>130</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="F41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>134</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="F42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>137</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="F43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>140</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="F44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>143</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="F45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>148</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="F46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>151</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="F47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>155</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="F48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>159</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="F49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>163</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="F50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>166</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="F51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>169</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="F52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>172</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="F53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>176</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="F54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>179</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="F55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>182</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="F56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>186</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="F57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>188</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="F58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>193</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="F59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>195</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="F60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>200</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="F61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>204</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="F62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>208</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="F63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>212</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="F64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>216</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>217</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="F66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>222</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="F67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>225</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="F68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>228</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="F69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>232</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="F70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>235</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="F71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>238</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="F72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>242</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="F73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>247</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="F74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>251</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="F75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>255</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="F76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>267</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="F77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2880,7 +2880,7 @@
       <c r="F78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2889,7 +2889,7 @@
       <c r="F79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2898,7 +2898,7 @@
       <c r="F80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2907,7 +2907,7 @@
       <c r="F81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2916,7 +2916,7 @@
       <c r="F82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2925,7 +2925,7 @@
       <c r="F83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2934,7 +2934,7 @@
       <c r="F84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2943,7 +2943,7 @@
       <c r="F85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2952,7 +2952,7 @@
       <c r="F86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2961,7 +2961,7 @@
       <c r="F87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2970,7 +2970,7 @@
       <c r="F88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2979,7 +2979,7 @@
       <c r="F89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2988,7 +2988,7 @@
       <c r="F90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2997,7 +2997,7 @@
       <c r="F91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3006,7 +3006,7 @@
       <c r="F92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3015,7 +3015,7 @@
       <c r="F93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3024,7 +3024,7 @@
       <c r="F94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3033,7 +3033,7 @@
       <c r="F95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3042,7 +3042,7 @@
       <c r="F96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3051,7 +3051,7 @@
       <c r="F97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3060,7 +3060,7 @@
       <c r="F98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3069,7 +3069,7 @@
       <c r="F99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3078,7 +3078,7 @@
       <c r="F100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3087,7 +3087,7 @@
       <c r="F101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3096,7 +3096,7 @@
       <c r="F102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3105,7 +3105,7 @@
       <c r="F103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3114,7 +3114,7 @@
       <c r="F104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3123,7 +3123,7 @@
       <c r="F105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3132,7 +3132,7 @@
       <c r="F106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3141,7 +3141,7 @@
       <c r="F107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3150,7 +3150,7 @@
       <c r="F108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3159,7 +3159,7 @@
       <c r="F109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3168,7 +3168,7 @@
       <c r="F110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3177,7 +3177,7 @@
       <c r="F111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3186,7 +3186,7 @@
       <c r="F112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3195,7 +3195,7 @@
       <c r="F113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3204,7 +3204,7 @@
       <c r="F114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3213,7 +3213,7 @@
       <c r="F115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3222,7 +3222,7 @@
       <c r="F116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3231,7 +3231,7 @@
       <c r="F117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3240,7 +3240,7 @@
       <c r="F118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3249,7 +3249,7 @@
       <c r="F119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3258,7 +3258,7 @@
       <c r="F120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3267,7 +3267,7 @@
       <c r="F121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3276,7 +3276,7 @@
       <c r="F122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3285,7 +3285,7 @@
       <c r="F123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3294,7 +3294,7 @@
       <c r="F124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3303,7 +3303,7 @@
       <c r="F125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3312,7 +3312,7 @@
       <c r="F126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3321,7 +3321,7 @@
       <c r="F127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3330,7 +3330,7 @@
       <c r="F128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3339,7 +3339,7 @@
       <c r="F129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3348,7 +3348,7 @@
       <c r="F130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3357,7 +3357,7 @@
       <c r="F131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3366,7 +3366,7 @@
       <c r="F132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3375,7 +3375,7 @@
       <c r="F133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3384,7 +3384,7 @@
       <c r="F134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3393,7 +3393,7 @@
       <c r="F135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3402,7 +3402,7 @@
       <c r="F136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3411,7 +3411,7 @@
       <c r="F137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3420,7 +3420,7 @@
       <c r="F138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3429,7 +3429,7 @@
       <c r="F139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3438,7 +3438,7 @@
       <c r="F140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3447,7 +3447,7 @@
       <c r="F141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3456,7 +3456,7 @@
       <c r="F142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3465,7 +3465,7 @@
       <c r="F143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3474,7 +3474,7 @@
       <c r="F144" s="5"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3483,7 +3483,7 @@
       <c r="F145" s="5"/>
       <c r="I145" s="5"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3492,7 +3492,7 @@
       <c r="F146" s="5"/>
       <c r="I146" s="5"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3501,7 +3501,7 @@
       <c r="F147" s="5"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3510,7 +3510,7 @@
       <c r="F148" s="5"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3519,7 +3519,7 @@
       <c r="F149" s="5"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3528,7 +3528,7 @@
       <c r="F150" s="5"/>
       <c r="I150" s="5"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3537,7 +3537,7 @@
       <c r="F151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3546,7 +3546,7 @@
       <c r="F152" s="5"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3555,7 +3555,7 @@
       <c r="F153" s="5"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3564,7 +3564,7 @@
       <c r="F154" s="5"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3573,7 +3573,7 @@
       <c r="F155" s="5"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3582,7 +3582,7 @@
       <c r="F156" s="5"/>
       <c r="I156" s="5"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3591,7 +3591,7 @@
       <c r="F157" s="5"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3600,7 +3600,7 @@
       <c r="F158" s="5"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3609,7 +3609,7 @@
       <c r="F159" s="5"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3618,7 +3618,7 @@
       <c r="F160" s="5"/>
       <c r="I160" s="5"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3627,7 +3627,7 @@
       <c r="F161" s="5"/>
       <c r="I161" s="5"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3636,7 +3636,7 @@
       <c r="F162" s="5"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3645,7 +3645,7 @@
       <c r="F163" s="5"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3654,7 +3654,7 @@
       <c r="F164" s="5"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3663,7 +3663,7 @@
       <c r="F165" s="5"/>
       <c r="I165" s="5"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3672,7 +3672,7 @@
       <c r="F166" s="5"/>
       <c r="I166" s="5"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3681,7 +3681,7 @@
       <c r="F167" s="5"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3690,7 +3690,7 @@
       <c r="F168" s="5"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3699,7 +3699,7 @@
       <c r="F169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3708,7 +3708,7 @@
       <c r="F170" s="5"/>
       <c r="I170" s="5"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3717,7 +3717,7 @@
       <c r="F171" s="5"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3726,7 +3726,7 @@
       <c r="F172" s="5"/>
       <c r="I172" s="5"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3735,7 +3735,7 @@
       <c r="F173" s="5"/>
       <c r="I173" s="5"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3744,7 +3744,7 @@
       <c r="F174" s="5"/>
       <c r="I174" s="5"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3753,7 +3753,7 @@
       <c r="F175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3762,7 +3762,7 @@
       <c r="F176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3771,7 +3771,7 @@
       <c r="F177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3780,7 +3780,7 @@
       <c r="F178" s="5"/>
       <c r="I178" s="5"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3789,7 +3789,7 @@
       <c r="F179" s="5"/>
       <c r="I179" s="5"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3798,7 +3798,7 @@
       <c r="F180" s="5"/>
       <c r="I180" s="5"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3807,7 +3807,7 @@
       <c r="F181" s="5"/>
       <c r="I181" s="5"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3816,7 +3816,7 @@
       <c r="F182" s="5"/>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3825,7 +3825,7 @@
       <c r="F183" s="5"/>
       <c r="I183" s="5"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3834,7 +3834,7 @@
       <c r="F184" s="5"/>
       <c r="I184" s="5"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3843,7 +3843,7 @@
       <c r="F185" s="5"/>
       <c r="I185" s="5"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3852,7 +3852,7 @@
       <c r="F186" s="5"/>
       <c r="I186" s="5"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3861,7 +3861,7 @@
       <c r="F187" s="5"/>
       <c r="I187" s="5"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3870,7 +3870,7 @@
       <c r="F188" s="5"/>
       <c r="I188" s="5"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3889,15 +3889,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -4132,6 +4123,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4144,14 +4144,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFD0563-E51A-46A4-BC50-64CB3B03F59E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625089FD-44EA-478C-AD4E-932468137AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4170,19 +4162,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFD0563-E51A-46A4-BC50-64CB3B03F59E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F03364E4-616A-463B-B4B9-EBAFE8804982}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>